--- a/Team-Data/2014-15/1-11-2014-15.xlsx
+++ b/Team-Data/2014-15/1-11-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,88 +733,88 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.784</v>
+        <v>0.778</v>
       </c>
       <c r="H2" t="n">
         <v>48.3</v>
       </c>
       <c r="I2" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J2" t="n">
-        <v>80.8</v>
+        <v>80.5</v>
       </c>
       <c r="K2" t="n">
         <v>0.467</v>
       </c>
       <c r="L2" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.383</v>
+        <v>0.378</v>
       </c>
       <c r="O2" t="n">
         <v>18</v>
       </c>
       <c r="P2" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R2" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="S2" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T2" t="n">
         <v>41.3</v>
       </c>
       <c r="U2" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="V2" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.9</v>
+        <v>102.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF2" t="n">
         <v>2</v>
@@ -756,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -774,7 +841,7 @@
         <v>9</v>
       </c>
       <c r="AN2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>11</v>
@@ -789,25 +856,25 @@
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
@@ -938,7 +1005,7 @@
         <v>24</v>
       </c>
       <c r="AH3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI3" t="n">
         <v>3</v>
@@ -968,19 +1035,19 @@
         <v>17</v>
       </c>
       <c r="AR3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS3" t="n">
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW3" t="n">
         <v>9</v>
@@ -992,10 +1059,10 @@
         <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB3" t="n">
         <v>8</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1123,7 +1190,7 @@
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="n">
         <v>24</v>
@@ -1153,22 +1220,22 @@
         <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>22</v>
@@ -1308,7 +1375,7 @@
         <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
@@ -1323,7 +1390,7 @@
         <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
         <v>16</v>
@@ -1359,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="BA5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -1484,10 +1551,10 @@
         <v>8</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>18</v>
@@ -1502,7 +1569,7 @@
         <v>17</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1544,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -1576,64 +1643,64 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="n">
         <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0.514</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J7" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L7" t="n">
         <v>8.1</v>
       </c>
       <c r="M7" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="N7" t="n">
         <v>0.344</v>
       </c>
       <c r="O7" t="n">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="P7" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.76</v>
+        <v>0.762</v>
       </c>
       <c r="R7" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S7" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T7" t="n">
         <v>41.2</v>
       </c>
       <c r="U7" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V7" t="n">
         <v>13.8</v>
       </c>
       <c r="W7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X7" t="n">
         <v>4.1</v>
@@ -1645,31 +1712,31 @@
         <v>17.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>14</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ7" t="n">
         <v>22</v>
@@ -1678,31 +1745,31 @@
         <v>18</v>
       </c>
       <c r="AL7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
       </c>
       <c r="AP7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS7" t="n">
         <v>27</v>
       </c>
       <c r="AT7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU7" t="n">
         <v>12</v>
@@ -1711,19 +1778,19 @@
         <v>9</v>
       </c>
       <c r="AW7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ7" t="n">
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB7" t="n">
         <v>17</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -1758,34 +1825,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" t="n">
         <v>26</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>0.703</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="J8" t="n">
-        <v>86.5</v>
+        <v>86.3</v>
       </c>
       <c r="K8" t="n">
         <v>0.475</v>
       </c>
       <c r="L8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="M8" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="N8" t="n">
         <v>0.361</v>
@@ -1794,28 +1861,28 @@
         <v>17.2</v>
       </c>
       <c r="P8" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.76</v>
+        <v>0.762</v>
       </c>
       <c r="R8" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T8" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="U8" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V8" t="n">
         <v>12.2</v>
       </c>
       <c r="W8" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
         <v>5</v>
@@ -1830,31 +1897,31 @@
         <v>22.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.1</v>
+        <v>108.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK8" t="n">
         <v>2</v>
@@ -1863,28 +1930,28 @@
         <v>6</v>
       </c>
       <c r="AM8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN8" t="n">
         <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
         <v>12</v>
       </c>
       <c r="AR8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS8" t="n">
         <v>21</v>
       </c>
       <c r="AT8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1905,13 +1972,13 @@
         <v>11</v>
       </c>
       <c r="BA8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB8" t="n">
         <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>-1.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>17</v>
@@ -2030,22 +2097,22 @@
         <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
         <v>12</v>
       </c>
       <c r="AM9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN9" t="n">
         <v>26</v>
@@ -2072,7 +2139,7 @@
         <v>16</v>
       </c>
       <c r="AV9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW9" t="n">
         <v>24</v>
@@ -2090,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,13 +2279,13 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
@@ -2230,7 +2297,7 @@
         <v>8</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
         <v>26</v>
@@ -2263,7 +2330,7 @@
         <v>20</v>
       </c>
       <c r="AY10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2452,7 @@
         <v>30</v>
       </c>
       <c r="AE11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="n">
         <v>1</v>
@@ -2412,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO11" t="n">
         <v>21</v>
@@ -2451,7 +2518,7 @@
         <v>13</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>0.694</v>
+        <v>0.703</v>
       </c>
       <c r="H12" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J12" t="n">
-        <v>83.3</v>
+        <v>83</v>
       </c>
       <c r="K12" t="n">
         <v>0.435</v>
@@ -2513,79 +2580,79 @@
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O12" t="n">
-        <v>17.1</v>
+        <v>17.6</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.707</v>
+        <v>0.706</v>
       </c>
       <c r="R12" t="n">
         <v>12.4</v>
       </c>
       <c r="S12" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T12" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U12" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V12" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="W12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X12" t="n">
         <v>4.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>101.3</v>
+        <v>101.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
         <v>10</v>
       </c>
       <c r="AI12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ12" t="n">
         <v>16</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2597,10 +2664,10 @@
         <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AP12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2609,13 +2676,13 @@
         <v>4</v>
       </c>
       <c r="AS12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU12" t="n">
         <v>22</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>23</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2624,19 +2691,19 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2816,7 @@
         <v>3</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
         <v>22</v>
@@ -2770,7 +2837,7 @@
         <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>19</v>
@@ -2788,7 +2855,7 @@
         <v>15</v>
       </c>
       <c r="AR13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
@@ -2797,7 +2864,7 @@
         <v>6</v>
       </c>
       <c r="AU13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV13" t="n">
         <v>11</v>
@@ -2806,16 +2873,16 @@
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ13" t="n">
         <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
         <v>25</v>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.658</v>
+        <v>0.676</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J14" t="n">
-        <v>81.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L14" t="n">
         <v>10.3</v>
@@ -2880,34 +2947,34 @@
         <v>26.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.384</v>
+        <v>0.385</v>
       </c>
       <c r="O14" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P14" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="Q14" t="n">
         <v>0.752</v>
       </c>
       <c r="R14" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>32.3</v>
+        <v>32.6</v>
       </c>
       <c r="T14" t="n">
-        <v>40.9</v>
+        <v>41.2</v>
       </c>
       <c r="U14" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="V14" t="n">
         <v>12.5</v>
       </c>
       <c r="W14" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X14" t="n">
         <v>4.8</v>
@@ -2916,25 +2983,25 @@
         <v>2.9</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.4</v>
+        <v>106.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>7</v>
       </c>
       <c r="AF14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
@@ -2943,10 +3010,10 @@
         <v>26</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2955,13 +3022,13 @@
         <v>2</v>
       </c>
       <c r="AM14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN14" t="n">
         <v>2</v>
       </c>
       <c r="AO14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP14" t="n">
         <v>6</v>
@@ -2973,22 +3040,22 @@
         <v>28</v>
       </c>
       <c r="AS14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT14" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AU14" t="n">
         <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW14" t="n">
         <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3003,7 +3070,7 @@
         <v>5</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -3047,49 +3114,49 @@
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="J15" t="n">
-        <v>86.59999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.44</v>
+        <v>0.438</v>
       </c>
       <c r="L15" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M15" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="N15" t="n">
         <v>0.357</v>
       </c>
       <c r="O15" t="n">
-        <v>18.4</v>
+        <v>18.8</v>
       </c>
       <c r="P15" t="n">
-        <v>24.6</v>
+        <v>25.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.745</v>
+        <v>0.747</v>
       </c>
       <c r="R15" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S15" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="T15" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
         <v>12.5</v>
       </c>
       <c r="W15" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
         <v>4.7</v>
@@ -3098,19 +3165,19 @@
         <v>4.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.8</v>
+        <v>-5.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,7 +3189,7 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
@@ -3131,43 +3198,43 @@
         <v>3</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AM15" t="n">
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO15" t="n">
         <v>8</v>
       </c>
       <c r="AP15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ15" t="n">
         <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
         <v>4</v>
       </c>
       <c r="AW15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX15" t="n">
         <v>16</v>
@@ -3176,13 +3243,13 @@
         <v>7</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BB15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" t="n">
         <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>0.703</v>
+        <v>0.694</v>
       </c>
       <c r="H16" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="I16" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="J16" t="n">
-        <v>83.90000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M16" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="O16" t="n">
         <v>18.1</v>
@@ -3253,61 +3320,61 @@
         <v>23.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.774</v>
+        <v>0.776</v>
       </c>
       <c r="R16" t="n">
         <v>10.4</v>
       </c>
       <c r="S16" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="T16" t="n">
-        <v>42.4</v>
+        <v>42.1</v>
       </c>
       <c r="U16" t="n">
         <v>22.6</v>
       </c>
       <c r="V16" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="W16" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y16" t="n">
         <v>5.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>101.8</v>
+        <v>101.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF16" t="n">
         <v>4</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
@@ -3322,25 +3389,25 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP16" t="n">
         <v>15</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR16" t="n">
         <v>21</v>
       </c>
       <c r="AS16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU16" t="n">
         <v>10</v>
@@ -3352,19 +3419,19 @@
         <v>10</v>
       </c>
       <c r="AX16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AY16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BB16" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BC16" t="n">
         <v>9</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" t="n">
         <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>0.432</v>
+        <v>0.417</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="J17" t="n">
-        <v>74.3</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L17" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M17" t="n">
         <v>20.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O17" t="n">
         <v>18.1</v>
@@ -3435,19 +3502,19 @@
         <v>24.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.733</v>
+        <v>0.73</v>
       </c>
       <c r="R17" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="T17" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="U17" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="V17" t="n">
         <v>14.4</v>
@@ -3459,7 +3526,7 @@
         <v>3.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z17" t="n">
         <v>20.2</v>
@@ -3468,22 +3535,22 @@
         <v>20.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>94</v>
+        <v>93.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>-4</v>
+        <v>-4.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
         <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
         <v>29</v>
@@ -3507,10 +3574,10 @@
         <v>16</v>
       </c>
       <c r="AO17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP17" t="n">
         <v>9</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>8</v>
       </c>
       <c r="AQ17" t="n">
         <v>26</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AV17" t="n">
         <v>12</v>
@@ -3543,7 +3610,7 @@
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
         <v>27</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -3662,13 +3729,13 @@
         <v>13</v>
       </c>
       <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
         <v>14</v>
       </c>
-      <c r="AG18" t="n">
-        <v>13</v>
-      </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
         <v>14</v>
@@ -3704,7 +3771,7 @@
         <v>24</v>
       </c>
       <c r="AT18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3722,7 +3789,7 @@
         <v>13</v>
       </c>
       <c r="AZ18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
         <v>23</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-10.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,7 +3917,7 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
         <v>16</v>
@@ -3859,7 +3926,7 @@
         <v>8</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3871,13 +3938,13 @@
         <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3886,7 +3953,7 @@
         <v>29</v>
       </c>
       <c r="AT19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU19" t="n">
         <v>11</v>
@@ -3898,7 +3965,7 @@
         <v>5</v>
       </c>
       <c r="AX19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" t="n">
         <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>0.486</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,88 +4027,88 @@
         <v>38.8</v>
       </c>
       <c r="J20" t="n">
-        <v>84.3</v>
+        <v>84.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.345</v>
+        <v>0.342</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.765</v>
+        <v>0.755</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T20" t="n">
-        <v>43</v>
+        <v>43.5</v>
       </c>
       <c r="U20" t="n">
         <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W20" t="n">
         <v>7.4</v>
       </c>
       <c r="X20" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
         <v>19.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
         <v>101.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
         <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
@@ -4050,25 +4117,25 @@
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO20" t="n">
         <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT20" t="n">
         <v>11</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>14</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
@@ -4077,22 +4144,22 @@
         <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>6</v>
       </c>
-      <c r="AY20" t="n">
+      <c r="BA20" t="n">
         <v>26</v>
       </c>
-      <c r="AZ20" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>28</v>
-      </c>
       <c r="BB20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC20" t="n">
         <v>15</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4287,7 @@
         <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
         <v>21</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR21" t="n">
         <v>18</v>
@@ -4271,7 +4338,7 @@
         <v>25</v>
       </c>
       <c r="BA21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -4384,19 +4451,19 @@
         <v>0.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH22" t="n">
         <v>15</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>17</v>
@@ -4405,7 +4472,7 @@
         <v>14</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
         <v>17</v>
@@ -4435,25 +4502,25 @@
         <v>2</v>
       </c>
       <c r="AU22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW22" t="n">
         <v>23</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
         <v>14</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -4488,85 +4555,85 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G23" t="n">
-        <v>0.333</v>
+        <v>0.325</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J23" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L23" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="N23" t="n">
         <v>0.368</v>
       </c>
       <c r="O23" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="P23" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.727</v>
+        <v>0.728</v>
       </c>
       <c r="R23" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T23" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="U23" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.8</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.5</v>
+        <v>-5.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>23</v>
@@ -4581,19 +4648,19 @@
         <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ23" t="n">
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN23" t="n">
         <v>7</v>
@@ -4611,31 +4678,31 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV23" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>18</v>
       </c>
       <c r="BA23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB23" t="n">
         <v>28</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-12.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM24" t="n">
         <v>10</v>
@@ -4784,13 +4851,13 @@
         <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
         <v>25</v>
@@ -4799,7 +4866,7 @@
         <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,10 +4875,10 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -4852,37 +4919,37 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" t="n">
         <v>22</v>
       </c>
       <c r="F25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" t="n">
-        <v>0.55</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>48.8</v>
+        <v>48.5</v>
       </c>
       <c r="I25" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="J25" t="n">
-        <v>86.2</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L25" t="n">
         <v>9.9</v>
       </c>
       <c r="M25" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.361</v>
+        <v>0.366</v>
       </c>
       <c r="O25" t="n">
         <v>17.4</v>
@@ -4891,49 +4958,49 @@
         <v>21.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.797</v>
+        <v>0.798</v>
       </c>
       <c r="R25" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S25" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T25" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U25" t="n">
         <v>20.7</v>
       </c>
       <c r="V25" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="W25" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X25" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB25" t="n">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="AC25" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
         <v>12</v>
@@ -4942,13 +5009,13 @@
         <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AI25" t="n">
         <v>4</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK25" t="n">
         <v>9</v>
@@ -4960,10 +5027,10 @@
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
         <v>22</v>
@@ -4975,16 +5042,16 @@
         <v>17</v>
       </c>
       <c r="AS25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT25" t="n">
         <v>17</v>
       </c>
-      <c r="AT25" t="n">
-        <v>16</v>
-      </c>
       <c r="AU25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW25" t="n">
         <v>7</v>
@@ -4996,16 +5063,16 @@
         <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" t="n">
         <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>0.789</v>
+        <v>0.784</v>
       </c>
       <c r="H26" t="n">
         <v>48.7</v>
@@ -5061,40 +5128,40 @@
         <v>10.2</v>
       </c>
       <c r="M26" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="N26" t="n">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
       <c r="O26" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P26" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.788</v>
+        <v>0.792</v>
       </c>
       <c r="R26" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="S26" t="n">
         <v>35.4</v>
       </c>
       <c r="T26" t="n">
-        <v>46.5</v>
+        <v>46.6</v>
       </c>
       <c r="U26" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V26" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W26" t="n">
         <v>6.6</v>
       </c>
       <c r="X26" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Y26" t="n">
         <v>3.5</v>
@@ -5103,16 +5170,16 @@
         <v>19.4</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
@@ -5124,7 +5191,7 @@
         <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
         <v>6</v>
@@ -5133,7 +5200,7 @@
         <v>2</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
@@ -5154,7 +5221,7 @@
         <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5172,13 +5239,13 @@
         <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA26" t="n">
         <v>25</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -5216,31 +5283,31 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" t="n">
         <v>21</v>
       </c>
       <c r="G27" t="n">
-        <v>0.432</v>
+        <v>0.417</v>
       </c>
       <c r="H27" t="n">
         <v>48.7</v>
       </c>
       <c r="I27" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J27" t="n">
-        <v>80</v>
+        <v>79.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L27" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M27" t="n">
         <v>15.5</v>
@@ -5249,19 +5316,19 @@
         <v>0.344</v>
       </c>
       <c r="O27" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="P27" t="n">
-        <v>30.2</v>
+        <v>30.6</v>
       </c>
       <c r="Q27" t="n">
         <v>0.774</v>
       </c>
       <c r="R27" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S27" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T27" t="n">
         <v>44.5</v>
@@ -5270,61 +5337,61 @@
         <v>19.8</v>
       </c>
       <c r="V27" t="n">
-        <v>16.2</v>
+        <v>16.5</v>
       </c>
       <c r="W27" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X27" t="n">
         <v>4.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="AB27" t="n">
         <v>102.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF27" t="n">
         <v>18</v>
       </c>
       <c r="AG27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
       </c>
       <c r="AM27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5354,7 +5421,7 @@
         <v>27</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" t="n">
         <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>0.595</v>
+        <v>0.605</v>
       </c>
       <c r="H28" t="n">
         <v>49.2</v>
@@ -5416,43 +5483,43 @@
         <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>82.8</v>
+        <v>82.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.465</v>
+        <v>0.467</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.371</v>
+        <v>0.375</v>
       </c>
       <c r="O28" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P28" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R28" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W28" t="n">
         <v>7.5</v>
@@ -5461,10 +5528,10 @@
         <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA28" t="n">
         <v>20.5</v>
@@ -5476,7 +5543,7 @@
         <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5494,13 +5561,13 @@
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
         <v>6</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>15</v>
@@ -5509,13 +5576,13 @@
         <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
@@ -5524,31 +5591,31 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AW28" t="n">
         <v>16</v>
       </c>
       <c r="AX28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
       </c>
       <c r="AZ28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>6.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="n">
         <v>7</v>
@@ -5667,10 +5734,10 @@
         <v>4</v>
       </c>
       <c r="AG29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
         <v>5</v>
@@ -5679,7 +5746,7 @@
         <v>9</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5688,7 +5755,7 @@
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5700,7 +5767,7 @@
         <v>3</v>
       </c>
       <c r="AR29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS29" t="n">
         <v>25</v>
@@ -5715,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX29" t="n">
         <v>21</v>
@@ -5724,10 +5791,10 @@
         <v>20</v>
       </c>
       <c r="AZ29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB29" t="n">
         <v>3</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -5882,13 +5949,13 @@
         <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU30" t="n">
         <v>24</v>
@@ -5897,10 +5964,10 @@
         <v>23</v>
       </c>
       <c r="AW30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" t="n">
         <v>25</v>
       </c>
       <c r="F31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" t="n">
-        <v>0.676</v>
+        <v>0.694</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
       </c>
       <c r="I31" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J31" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K31" t="n">
         <v>0.473</v>
@@ -5971,34 +6038,34 @@
         <v>6.1</v>
       </c>
       <c r="M31" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.392</v>
+        <v>0.397</v>
       </c>
       <c r="O31" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P31" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.737</v>
+        <v>0.735</v>
       </c>
       <c r="R31" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S31" t="n">
         <v>32.4</v>
       </c>
       <c r="T31" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U31" t="n">
         <v>25</v>
       </c>
       <c r="V31" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="W31" t="n">
         <v>7.9</v>
@@ -6010,37 +6077,37 @@
         <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>7</v>
       </c>
       <c r="AF31" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AG31" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AH31" t="n">
         <v>14</v>
       </c>
       <c r="AI31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
         <v>4</v>
@@ -6049,7 +6116,7 @@
         <v>26</v>
       </c>
       <c r="AM31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN31" t="n">
         <v>1</v>
@@ -6061,13 +6128,13 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT31" t="n">
         <v>15</v>
@@ -6076,28 +6143,28 @@
         <v>4</v>
       </c>
       <c r="AV31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW31" t="n">
         <v>12</v>
       </c>
       <c r="AX31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
         <v>19</v>
       </c>
       <c r="BA31" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
       </c>
       <c r="BC31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-11-2014-15</t>
+          <t>2015-01-11</t>
         </is>
       </c>
     </row>
